--- a/data/neut_plate_reader_data/HC080054.xlsx
+++ b/data/neut_plate_reader_data/HC080054.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C35FD7-231E-254C-99C0-085A5598AEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="5" r:id="rId1"/>
     <sheet name="K189D" sheetId="4" r:id="rId2"/>
     <sheet name="F193F" sheetId="3" r:id="rId3"/>
     <sheet name="WT" sheetId="2" r:id="rId4"/>
+    <sheet name="I192E" sheetId="6" r:id="rId5"/>
+    <sheet name="F159G" sheetId="7" r:id="rId6"/>
+    <sheet name="WT2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -84,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -108,12 +117,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -175,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -199,12 +208,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -266,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -290,12 +299,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -357,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +374,280 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -381,7 +663,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -567,12 +849,42 @@
   </si>
   <si>
     <t>3/21/2020 12:44:45 PM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:57:41 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.5 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:56:45 AM</t>
+  </si>
+  <si>
+    <t>9:55:47 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:55:25 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:54:29 AM</t>
+  </si>
+  <si>
+    <t>9:53:26 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:53:05 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:52:09 AM</t>
+  </si>
+  <si>
+    <t>9:51:12 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,10 +912,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,60 +966,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,23 +994,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -801,7 +1062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,9 +1095,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,6 +1147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,14 +1339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1378,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1099,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1115,17 +1410,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1133,12 +1428,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1256,12 +1551,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1302,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1638,7 @@
         <v>8360</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1384,7 +1679,7 @@
         <v>10760</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1720,7 @@
         <v>35783</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1466,7 +1761,7 @@
         <v>15303</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1802,7 @@
         <v>15365</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1843,7 @@
         <v>15271</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1589,7 +1884,7 @@
         <v>32842</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1630,7 +1925,7 @@
         <v>7572</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1645,14 +1940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1660,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1979,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1716,17 +2011,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1734,12 +2029,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +2045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +2067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +2089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1805,7 +2100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +2111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +2144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1857,12 +2152,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1944,7 +2239,7 @@
         <v>10562</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +2280,7 @@
         <v>13886</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2321,7 @@
         <v>39385</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2067,7 +2362,7 @@
         <v>20386</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2403,7 @@
         <v>20462</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +2444,7 @@
         <v>20234</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2485,7 @@
         <v>37628</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2231,7 +2526,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2246,14 +2541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2580,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2317,17 +2612,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2335,12 +2630,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2362,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2384,7 +2679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2395,7 +2690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +2712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2450,7 +2745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2458,12 +2753,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2840,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +2881,7 @@
         <v>13404</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2627,7 +2922,7 @@
         <v>35641</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2668,7 +2963,7 @@
         <v>19372</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2709,7 +3004,7 @@
         <v>19327</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2750,7 +3045,7 @@
         <v>19343</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2791,7 +3086,7 @@
         <v>34750</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2832,7 +3127,7 @@
         <v>9794</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2847,14 +3142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2870,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +3181,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2918,17 +3213,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2936,12 +3231,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2952,7 +3247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2963,7 +3258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +3269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2985,7 +3280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +3291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3018,7 +3313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3040,7 +3335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3059,12 +3354,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3105,7 +3400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3146,7 +3441,7 @@
         <v>14016</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3187,7 +3482,7 @@
         <v>17944</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3228,7 +3523,7 @@
         <v>39630</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3269,7 +3564,7 @@
         <v>26134</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3310,7 +3605,7 @@
         <v>25955</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3351,7 +3646,7 @@
         <v>26437</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3392,7 +3687,7 @@
         <v>36639</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3433,12 +3728,1815 @@
         <v>13649</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B496BE-C24E-DA41-ADFE-F611215CACDC}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>17191</v>
+      </c>
+      <c r="C32">
+        <v>17667</v>
+      </c>
+      <c r="D32">
+        <v>17513</v>
+      </c>
+      <c r="E32">
+        <v>17762</v>
+      </c>
+      <c r="F32">
+        <v>17644</v>
+      </c>
+      <c r="G32">
+        <v>17937</v>
+      </c>
+      <c r="H32">
+        <v>17896</v>
+      </c>
+      <c r="I32">
+        <v>17917</v>
+      </c>
+      <c r="J32">
+        <v>18112</v>
+      </c>
+      <c r="K32">
+        <v>17569</v>
+      </c>
+      <c r="L32">
+        <v>17495</v>
+      </c>
+      <c r="M32">
+        <v>17236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>22281</v>
+      </c>
+      <c r="C33">
+        <v>22087</v>
+      </c>
+      <c r="D33">
+        <v>21858</v>
+      </c>
+      <c r="E33">
+        <v>21990</v>
+      </c>
+      <c r="F33">
+        <v>22686</v>
+      </c>
+      <c r="G33">
+        <v>22247</v>
+      </c>
+      <c r="H33">
+        <v>22215</v>
+      </c>
+      <c r="I33">
+        <v>22165</v>
+      </c>
+      <c r="J33">
+        <v>21996</v>
+      </c>
+      <c r="K33">
+        <v>21814</v>
+      </c>
+      <c r="L33">
+        <v>21880</v>
+      </c>
+      <c r="M33">
+        <v>22153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>38821</v>
+      </c>
+      <c r="C34">
+        <v>39397</v>
+      </c>
+      <c r="D34">
+        <v>38907</v>
+      </c>
+      <c r="E34">
+        <v>39553</v>
+      </c>
+      <c r="F34">
+        <v>39367</v>
+      </c>
+      <c r="G34">
+        <v>38468</v>
+      </c>
+      <c r="H34">
+        <v>39652</v>
+      </c>
+      <c r="I34">
+        <v>40307</v>
+      </c>
+      <c r="J34">
+        <v>38576</v>
+      </c>
+      <c r="K34">
+        <v>39514</v>
+      </c>
+      <c r="L34">
+        <v>39714</v>
+      </c>
+      <c r="M34">
+        <v>40355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38961</v>
+      </c>
+      <c r="C35">
+        <v>38478</v>
+      </c>
+      <c r="D35">
+        <v>38771</v>
+      </c>
+      <c r="E35">
+        <v>39309</v>
+      </c>
+      <c r="F35">
+        <v>38784</v>
+      </c>
+      <c r="G35">
+        <v>37492</v>
+      </c>
+      <c r="H35">
+        <v>37221</v>
+      </c>
+      <c r="I35">
+        <v>33135</v>
+      </c>
+      <c r="J35">
+        <v>27411</v>
+      </c>
+      <c r="K35">
+        <v>24686</v>
+      </c>
+      <c r="L35">
+        <v>26736</v>
+      </c>
+      <c r="M35">
+        <v>32565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38041</v>
+      </c>
+      <c r="C36">
+        <v>38625</v>
+      </c>
+      <c r="D36">
+        <v>38711</v>
+      </c>
+      <c r="E36">
+        <v>37737</v>
+      </c>
+      <c r="F36">
+        <v>37970</v>
+      </c>
+      <c r="G36">
+        <v>37670</v>
+      </c>
+      <c r="H36">
+        <v>35102</v>
+      </c>
+      <c r="I36">
+        <v>31931</v>
+      </c>
+      <c r="J36">
+        <v>27286</v>
+      </c>
+      <c r="K36">
+        <v>24498</v>
+      </c>
+      <c r="L36">
+        <v>26679</v>
+      </c>
+      <c r="M36">
+        <v>33039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37252</v>
+      </c>
+      <c r="C37">
+        <v>36558</v>
+      </c>
+      <c r="D37">
+        <v>36586</v>
+      </c>
+      <c r="E37">
+        <v>36799</v>
+      </c>
+      <c r="F37">
+        <v>37124</v>
+      </c>
+      <c r="G37">
+        <v>36969</v>
+      </c>
+      <c r="H37">
+        <v>35431</v>
+      </c>
+      <c r="I37">
+        <v>31507</v>
+      </c>
+      <c r="J37">
+        <v>27134</v>
+      </c>
+      <c r="K37">
+        <v>24118</v>
+      </c>
+      <c r="L37">
+        <v>26620</v>
+      </c>
+      <c r="M37">
+        <v>32610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>36673</v>
+      </c>
+      <c r="C38">
+        <v>38081</v>
+      </c>
+      <c r="D38">
+        <v>37567</v>
+      </c>
+      <c r="E38">
+        <v>38534</v>
+      </c>
+      <c r="F38">
+        <v>36657</v>
+      </c>
+      <c r="G38">
+        <v>38226</v>
+      </c>
+      <c r="H38">
+        <v>37858</v>
+      </c>
+      <c r="I38">
+        <v>37240</v>
+      </c>
+      <c r="J38">
+        <v>38970</v>
+      </c>
+      <c r="K38">
+        <v>37895</v>
+      </c>
+      <c r="L38">
+        <v>38367</v>
+      </c>
+      <c r="M38">
+        <v>37235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>15542</v>
+      </c>
+      <c r="C39">
+        <v>15708</v>
+      </c>
+      <c r="D39">
+        <v>15927</v>
+      </c>
+      <c r="E39">
+        <v>15848</v>
+      </c>
+      <c r="F39">
+        <v>15977</v>
+      </c>
+      <c r="G39">
+        <v>16166</v>
+      </c>
+      <c r="H39">
+        <v>15973</v>
+      </c>
+      <c r="I39">
+        <v>16156</v>
+      </c>
+      <c r="J39">
+        <v>16115</v>
+      </c>
+      <c r="K39">
+        <v>16021</v>
+      </c>
+      <c r="L39">
+        <v>16069</v>
+      </c>
+      <c r="M39">
+        <v>16041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CE055F-4FCA-964A-A13E-D0D5672044E6}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5982</v>
+      </c>
+      <c r="C32">
+        <v>5982</v>
+      </c>
+      <c r="D32">
+        <v>5965</v>
+      </c>
+      <c r="E32">
+        <v>6045</v>
+      </c>
+      <c r="F32">
+        <v>5977</v>
+      </c>
+      <c r="G32">
+        <v>6059</v>
+      </c>
+      <c r="H32">
+        <v>6113</v>
+      </c>
+      <c r="I32">
+        <v>6222</v>
+      </c>
+      <c r="J32">
+        <v>6072</v>
+      </c>
+      <c r="K32">
+        <v>6071</v>
+      </c>
+      <c r="L32">
+        <v>5948</v>
+      </c>
+      <c r="M32">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>8346</v>
+      </c>
+      <c r="C33">
+        <v>8151</v>
+      </c>
+      <c r="D33">
+        <v>8159</v>
+      </c>
+      <c r="E33">
+        <v>8239</v>
+      </c>
+      <c r="F33">
+        <v>8326</v>
+      </c>
+      <c r="G33">
+        <v>8272</v>
+      </c>
+      <c r="H33">
+        <v>8216</v>
+      </c>
+      <c r="I33">
+        <v>8391</v>
+      </c>
+      <c r="J33">
+        <v>8239</v>
+      </c>
+      <c r="K33">
+        <v>8132</v>
+      </c>
+      <c r="L33">
+        <v>8271</v>
+      </c>
+      <c r="M33">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>32790</v>
+      </c>
+      <c r="C34">
+        <v>37151</v>
+      </c>
+      <c r="D34">
+        <v>37051</v>
+      </c>
+      <c r="E34">
+        <v>36961</v>
+      </c>
+      <c r="F34">
+        <v>37007</v>
+      </c>
+      <c r="G34">
+        <v>37381</v>
+      </c>
+      <c r="H34">
+        <v>37708</v>
+      </c>
+      <c r="I34">
+        <v>38923</v>
+      </c>
+      <c r="J34">
+        <v>37678</v>
+      </c>
+      <c r="K34">
+        <v>38426</v>
+      </c>
+      <c r="L34">
+        <v>35196</v>
+      </c>
+      <c r="M34">
+        <v>33870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>33105</v>
+      </c>
+      <c r="C35">
+        <v>36257</v>
+      </c>
+      <c r="D35">
+        <v>35815</v>
+      </c>
+      <c r="E35">
+        <v>35145</v>
+      </c>
+      <c r="F35">
+        <v>35906</v>
+      </c>
+      <c r="G35">
+        <v>36863</v>
+      </c>
+      <c r="H35">
+        <v>36256</v>
+      </c>
+      <c r="I35">
+        <v>31960</v>
+      </c>
+      <c r="J35">
+        <v>26211</v>
+      </c>
+      <c r="K35">
+        <v>16374</v>
+      </c>
+      <c r="L35">
+        <v>11074</v>
+      </c>
+      <c r="M35">
+        <v>11679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>32714</v>
+      </c>
+      <c r="C36">
+        <v>35268</v>
+      </c>
+      <c r="D36">
+        <v>36118</v>
+      </c>
+      <c r="E36">
+        <v>35640</v>
+      </c>
+      <c r="F36">
+        <v>35897</v>
+      </c>
+      <c r="G36">
+        <v>35834</v>
+      </c>
+      <c r="H36">
+        <v>33676</v>
+      </c>
+      <c r="I36">
+        <v>31945</v>
+      </c>
+      <c r="J36">
+        <v>24447</v>
+      </c>
+      <c r="K36">
+        <v>16128</v>
+      </c>
+      <c r="L36">
+        <v>10859</v>
+      </c>
+      <c r="M36">
+        <v>11763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>32850</v>
+      </c>
+      <c r="C37">
+        <v>36521</v>
+      </c>
+      <c r="D37">
+        <v>36282</v>
+      </c>
+      <c r="E37">
+        <v>36610</v>
+      </c>
+      <c r="F37">
+        <v>35138</v>
+      </c>
+      <c r="G37">
+        <v>35837</v>
+      </c>
+      <c r="H37">
+        <v>35451</v>
+      </c>
+      <c r="I37">
+        <v>32247</v>
+      </c>
+      <c r="J37">
+        <v>25428</v>
+      </c>
+      <c r="K37">
+        <v>15688</v>
+      </c>
+      <c r="L37">
+        <v>10986</v>
+      </c>
+      <c r="M37">
+        <v>11653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>28089</v>
+      </c>
+      <c r="C38">
+        <v>32557</v>
+      </c>
+      <c r="D38">
+        <v>33275</v>
+      </c>
+      <c r="E38">
+        <v>31953</v>
+      </c>
+      <c r="F38">
+        <v>35771</v>
+      </c>
+      <c r="G38">
+        <v>36479</v>
+      </c>
+      <c r="H38">
+        <v>36473</v>
+      </c>
+      <c r="I38">
+        <v>37409</v>
+      </c>
+      <c r="J38">
+        <v>36286</v>
+      </c>
+      <c r="K38">
+        <v>35598</v>
+      </c>
+      <c r="L38">
+        <v>32622</v>
+      </c>
+      <c r="M38">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>5408</v>
+      </c>
+      <c r="C39">
+        <v>5494</v>
+      </c>
+      <c r="D39">
+        <v>5442</v>
+      </c>
+      <c r="E39">
+        <v>5459</v>
+      </c>
+      <c r="F39">
+        <v>5488</v>
+      </c>
+      <c r="G39">
+        <v>5515</v>
+      </c>
+      <c r="H39">
+        <v>5528</v>
+      </c>
+      <c r="I39">
+        <v>5536</v>
+      </c>
+      <c r="J39">
+        <v>5730</v>
+      </c>
+      <c r="K39">
+        <v>5610</v>
+      </c>
+      <c r="L39">
+        <v>5539</v>
+      </c>
+      <c r="M39">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF60577B-284F-1A44-914E-E22B80EA7F5C}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>15981</v>
+      </c>
+      <c r="C32">
+        <v>16186</v>
+      </c>
+      <c r="D32">
+        <v>16232</v>
+      </c>
+      <c r="E32">
+        <v>16399</v>
+      </c>
+      <c r="F32">
+        <v>16393</v>
+      </c>
+      <c r="G32">
+        <v>16635</v>
+      </c>
+      <c r="H32">
+        <v>16499</v>
+      </c>
+      <c r="I32">
+        <v>16604</v>
+      </c>
+      <c r="J32">
+        <v>16451</v>
+      </c>
+      <c r="K32">
+        <v>16304</v>
+      </c>
+      <c r="L32">
+        <v>15986</v>
+      </c>
+      <c r="M32">
+        <v>15923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>20354</v>
+      </c>
+      <c r="C33">
+        <v>19996</v>
+      </c>
+      <c r="D33">
+        <v>20032</v>
+      </c>
+      <c r="E33">
+        <v>20294</v>
+      </c>
+      <c r="F33">
+        <v>20769</v>
+      </c>
+      <c r="G33">
+        <v>20523</v>
+      </c>
+      <c r="H33">
+        <v>20580</v>
+      </c>
+      <c r="I33">
+        <v>20995</v>
+      </c>
+      <c r="J33">
+        <v>20240</v>
+      </c>
+      <c r="K33">
+        <v>20674</v>
+      </c>
+      <c r="L33">
+        <v>20442</v>
+      </c>
+      <c r="M33">
+        <v>20079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>39797</v>
+      </c>
+      <c r="C34">
+        <v>39599</v>
+      </c>
+      <c r="D34">
+        <v>40191</v>
+      </c>
+      <c r="E34">
+        <v>39702</v>
+      </c>
+      <c r="F34">
+        <v>40104</v>
+      </c>
+      <c r="G34">
+        <v>40906</v>
+      </c>
+      <c r="H34">
+        <v>40603</v>
+      </c>
+      <c r="I34">
+        <v>40394</v>
+      </c>
+      <c r="J34">
+        <v>40336</v>
+      </c>
+      <c r="K34">
+        <v>40240</v>
+      </c>
+      <c r="L34">
+        <v>38509</v>
+      </c>
+      <c r="M34">
+        <v>39626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38896</v>
+      </c>
+      <c r="C35">
+        <v>38647</v>
+      </c>
+      <c r="D35">
+        <v>37899</v>
+      </c>
+      <c r="E35">
+        <v>38818</v>
+      </c>
+      <c r="F35">
+        <v>39639</v>
+      </c>
+      <c r="G35">
+        <v>38228</v>
+      </c>
+      <c r="H35">
+        <v>37739</v>
+      </c>
+      <c r="I35">
+        <v>33392</v>
+      </c>
+      <c r="J35">
+        <v>26287</v>
+      </c>
+      <c r="K35">
+        <v>22541</v>
+      </c>
+      <c r="L35">
+        <v>24591</v>
+      </c>
+      <c r="M35">
+        <v>29889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38897</v>
+      </c>
+      <c r="C36">
+        <v>39182</v>
+      </c>
+      <c r="D36">
+        <v>37646</v>
+      </c>
+      <c r="E36">
+        <v>37727</v>
+      </c>
+      <c r="F36">
+        <v>39068</v>
+      </c>
+      <c r="G36">
+        <v>38330</v>
+      </c>
+      <c r="H36">
+        <v>35845</v>
+      </c>
+      <c r="I36">
+        <v>31367</v>
+      </c>
+      <c r="J36">
+        <v>25428</v>
+      </c>
+      <c r="K36">
+        <v>22501</v>
+      </c>
+      <c r="L36">
+        <v>24675</v>
+      </c>
+      <c r="M36">
+        <v>30346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>38234</v>
+      </c>
+      <c r="C37">
+        <v>37794</v>
+      </c>
+      <c r="D37">
+        <v>36902</v>
+      </c>
+      <c r="E37">
+        <v>36485</v>
+      </c>
+      <c r="F37">
+        <v>38128</v>
+      </c>
+      <c r="G37">
+        <v>36566</v>
+      </c>
+      <c r="H37">
+        <v>35226</v>
+      </c>
+      <c r="I37">
+        <v>30623</v>
+      </c>
+      <c r="J37">
+        <v>25163</v>
+      </c>
+      <c r="K37">
+        <v>22358</v>
+      </c>
+      <c r="L37">
+        <v>24503</v>
+      </c>
+      <c r="M37">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>36737</v>
+      </c>
+      <c r="C38">
+        <v>38785</v>
+      </c>
+      <c r="D38">
+        <v>37198</v>
+      </c>
+      <c r="E38">
+        <v>37843</v>
+      </c>
+      <c r="F38">
+        <v>37764</v>
+      </c>
+      <c r="G38">
+        <v>37793</v>
+      </c>
+      <c r="H38">
+        <v>38149</v>
+      </c>
+      <c r="I38">
+        <v>38927</v>
+      </c>
+      <c r="J38">
+        <v>38186</v>
+      </c>
+      <c r="K38">
+        <v>37939</v>
+      </c>
+      <c r="L38">
+        <v>36741</v>
+      </c>
+      <c r="M38">
+        <v>35710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14824</v>
+      </c>
+      <c r="C39">
+        <v>15118</v>
+      </c>
+      <c r="D39">
+        <v>15215</v>
+      </c>
+      <c r="E39">
+        <v>15211</v>
+      </c>
+      <c r="F39">
+        <v>15544</v>
+      </c>
+      <c r="G39">
+        <v>15624</v>
+      </c>
+      <c r="H39">
+        <v>15389</v>
+      </c>
+      <c r="I39">
+        <v>15448</v>
+      </c>
+      <c r="J39">
+        <v>15282</v>
+      </c>
+      <c r="K39">
+        <v>15056</v>
+      </c>
+      <c r="L39">
+        <v>15097</v>
+      </c>
+      <c r="M39">
+        <v>15085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
